--- a/COMPUTADORES.xlsx
+++ b/COMPUTADORES.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adm\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{882B65A3-E366-43A4-B3A4-7998A191B099}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20479645-6C3B-4878-998D-4DCC13453206}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{29361F8E-86D6-48D5-9821-52ECFA3BF1A1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{29361F8E-86D6-48D5-9821-52ECFA3BF1A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$E$72</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$F$72</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="82">
   <si>
     <t>08r49qak800226j</t>
   </si>
@@ -217,13 +218,70 @@
   </si>
   <si>
     <t>GABRIEL HENRIQUE PEREIRA CALVACANTE</t>
+  </si>
+  <si>
+    <t>BRJ504K6DL</t>
+  </si>
+  <si>
+    <t>3Y3Y0Y</t>
+  </si>
+  <si>
+    <t>BRJ504K7J0</t>
+  </si>
+  <si>
+    <t>H7L89EC#AC4</t>
+  </si>
+  <si>
+    <t>BRJ504K7JS</t>
+  </si>
+  <si>
+    <t>BRJ504K7JK</t>
+  </si>
+  <si>
+    <t>BRJ504K68H</t>
+  </si>
+  <si>
+    <t>RIO</t>
+  </si>
+  <si>
+    <t>LUGAR</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>BRJ504K787</t>
+  </si>
+  <si>
+    <t>BRJ446C69G</t>
+  </si>
+  <si>
+    <t>BRJ446CD2L</t>
+  </si>
+  <si>
+    <t>4j36y02</t>
+  </si>
+  <si>
+    <t>P37G004</t>
+  </si>
+  <si>
+    <t>R701LXD</t>
+  </si>
+  <si>
+    <t>627026P</t>
+  </si>
+  <si>
+    <t>BRJ448DN18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Helena </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,6 +295,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="48"/>
+      <color theme="1"/>
+      <name val="C39HrP24DhTt"/>
     </font>
   </fonts>
   <fills count="4">
@@ -259,7 +322,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -308,11 +371,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -324,6 +398,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -640,10 +723,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2500DA70-957F-4605-BD92-FF5F52B44E59}">
-  <dimension ref="A1:E72"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -653,9 +737,10 @@
     <col min="3" max="3" width="39.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -671,8 +756,11 @@
       <c r="E1" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -688,8 +776,11 @@
       <c r="E2" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -705,8 +796,11 @@
       <c r="E3" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -714,8 +808,11 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -731,8 +828,11 @@
       <c r="E5" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -740,8 +840,11 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -749,8 +852,11 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -758,8 +864,11 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -775,8 +884,11 @@
       <c r="E9" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -788,8 +900,11 @@
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -801,8 +916,11 @@
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -818,8 +936,11 @@
       <c r="E12" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -833,8 +954,11 @@
         <v>57</v>
       </c>
       <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -848,8 +972,11 @@
         <v>50</v>
       </c>
       <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -865,8 +992,11 @@
       <c r="E15" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -882,8 +1012,11 @@
       <c r="E16" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -899,8 +1032,11 @@
       <c r="E17" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -916,8 +1052,11 @@
       <c r="E18" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -933,8 +1072,11 @@
       <c r="E19" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -942,8 +1084,11 @@
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -959,8 +1104,11 @@
       <c r="E21" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -976,8 +1124,11 @@
       <c r="E22" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -993,8 +1144,11 @@
       <c r="E23" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1010,8 +1164,11 @@
       <c r="E24" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1027,8 +1184,11 @@
       <c r="E25" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1044,8 +1204,11 @@
       <c r="E26" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1061,8 +1224,11 @@
       <c r="E27" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1078,8 +1244,11 @@
       <c r="E28" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1095,8 +1264,11 @@
       <c r="E29" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1112,8 +1284,11 @@
       <c r="E30" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1129,120 +1304,247 @@
       <c r="E31" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32" s="2"/>
+      <c r="B32" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="C32" s="2"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B33" s="2"/>
+      <c r="B33" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="C33" s="2"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>33</v>
       </c>
-      <c r="B34" s="2"/>
+      <c r="B34" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="C34" s="2"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="B35" s="2"/>
+      <c r="B35" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="C35" s="2"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>35</v>
       </c>
-      <c r="B36" s="2"/>
+      <c r="B36" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="C36" s="2"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>36</v>
       </c>
-      <c r="B37" s="2"/>
+      <c r="B37" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="C37" s="2"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="B38" s="2"/>
+      <c r="B38" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="C38" s="2"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>38</v>
       </c>
-      <c r="B39" s="2"/>
+      <c r="B39" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="C39" s="2"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>39</v>
       </c>
-      <c r="B40" s="2"/>
+      <c r="B40" s="2">
+        <v>9861349538</v>
+      </c>
       <c r="C40" s="2"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>40</v>
       </c>
-      <c r="B41" s="2"/>
+      <c r="B41" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="C41" s="2"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>41</v>
       </c>
-      <c r="B42" s="2"/>
+      <c r="B42" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="C42" s="2"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
+      <c r="D42" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B43" s="1"/>
+      <c r="C43" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>43</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>44</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>45</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>46</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -1418,8 +1720,84 @@
       <c r="C72" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E72" xr:uid="{2B3929D2-6353-4A88-A22F-339A6F2485FB}"/>
+  <autoFilter ref="A1:F72" xr:uid="{BFE3748E-AF10-4FA2-B411-D885B6F579D9}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FBBC378-DBFA-4CCF-917F-69FCA7BC7DEA}">
+  <dimension ref="B1:C7"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="58.5" x14ac:dyDescent="0.25">
+      <c r="B1" s="5">
+        <v>10038</v>
+      </c>
+      <c r="C1" s="5">
+        <v>10031</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" ht="58.5" x14ac:dyDescent="0.25">
+      <c r="B2" s="5">
+        <v>10039</v>
+      </c>
+      <c r="C2" s="5">
+        <v>10032</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="58.5" x14ac:dyDescent="0.25">
+      <c r="B3" s="5">
+        <v>10040</v>
+      </c>
+      <c r="C3" s="5">
+        <v>10033</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="58.5" x14ac:dyDescent="0.25">
+      <c r="B4" s="5">
+        <v>10041</v>
+      </c>
+      <c r="C4" s="5">
+        <v>10034</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="58.5" x14ac:dyDescent="0.25">
+      <c r="B5" s="5">
+        <v>10042</v>
+      </c>
+      <c r="C5" s="5">
+        <v>10035</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="58.5" x14ac:dyDescent="0.25">
+      <c r="B6" s="5">
+        <v>10043</v>
+      </c>
+      <c r="C6" s="5">
+        <v>10036</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="58.5" x14ac:dyDescent="0.25">
+      <c r="B7" s="5">
+        <v>10044</v>
+      </c>
+      <c r="C7" s="5">
+        <v>10037</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
 </file>